--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail10 Features.xlsx
@@ -2844,7 +2844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,29 +2855,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2898,115 +2896,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3023,72 +3011,66 @@
         <v>1.862913379119956e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.223826667979888</v>
+        <v>1.337957325332665e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.214814428282384</v>
+        <v>6.44287266207666e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.337957325332665e-06</v>
+        <v>-0.08239178633257406</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.44287266207666e-06</v>
+        <v>0.4993363073822086</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08239178633257406</v>
+        <v>0.2555234894841272</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4993363073822086</v>
+        <v>1.361692218013304</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.2555234894841272</v>
+        <v>1.524835576232867</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.285624482382609</v>
+        <v>4.078856224380594</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.524835576232867</v>
+        <v>6.735410913122105e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.078856224380594</v>
+        <v>9559849.481484687</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.735410913122105e-14</v>
+        <v>9.227809074206189e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>9559849.481484687</v>
+        <v>6.15554067048664</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.227809074206189e-06</v>
+        <v>9.83441997446813e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.15554067048664</v>
+        <v>6.64459981589139</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.83441997446813e-05</v>
+        <v>1.576093632985134</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.64459981589139</v>
+        <v>0.004341965919885934</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.576093632985134</v>
+        <v>3.277653138998268</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.004341965919885934</v>
+        <v>0.9240718769738158</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.277653138998268</v>
+        <v>1.894597518100627</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9240718769738158</v>
+        <v>17</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.894597518100627</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2806690402168296</v>
       </c>
     </row>
@@ -3103,72 +3085,66 @@
         <v>1.561906378888195e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.07812890830713623</v>
+        <v>8.556246496522576e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.4333867759779109</v>
+        <v>6.431393741477006e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.556246496522576e-07</v>
+        <v>-0.05202863916148659</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.431393741477006e-06</v>
+        <v>0.4499270248374451</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.05202863916148659</v>
+        <v>0.2046984607662936</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.4499270248374451</v>
+        <v>1.363634640732063</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.2046984607662936</v>
+        <v>1.471132199878876</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.287811890633966</v>
+        <v>4.126012921333853</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.471132199878876</v>
+        <v>6.582331085070503e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.126012921333853</v>
+        <v>9797709.538082421</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.582331085070503e-14</v>
+        <v>9.016675253359616e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>9797709.538082421</v>
+        <v>6.31871611000387</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.016675253359616e-06</v>
+        <v>0.0001084561167317126</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.31871611000387</v>
+        <v>7.888227661195373</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001084561167317126</v>
+        <v>1.760705882811276</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.888227661195373</v>
+        <v>0.00674858811794297</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.760705882811276</v>
+        <v>3.277097834380254</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00674858811794297</v>
+        <v>0.9239556637357955</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.277097834380254</v>
+        <v>1.919709167502374</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9239556637357955</v>
+        <v>22</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.919709167502374</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2958249065166033</v>
       </c>
     </row>
@@ -3183,72 +3159,66 @@
         <v>1.479379412515447e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1274848967574256</v>
+        <v>5.609831123010388e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8339267225951286</v>
+        <v>6.425947311907902e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.609831123010388e-07</v>
+        <v>-0.02114156722041756</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.425947311907902e-06</v>
+        <v>0.3743253891712294</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02114156722041756</v>
+        <v>0.1403360263457769</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3743253891712294</v>
+        <v>1.363221039206623</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1403360263457769</v>
+        <v>1.446944992151425</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.287562769239175</v>
+        <v>4.184298528056138</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.446944992151425</v>
+        <v>6.400229795293192e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.184298528056138</v>
+        <v>10150157.64315533</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.400229795293192e-14</v>
+        <v>8.743319171458302e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>10150157.64315533</v>
+        <v>6.59388155978768</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.743319171458302e-06</v>
+        <v>0.000115652083787783</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6.59388155978768</v>
+        <v>8.472370863027301</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000115652083787783</v>
+        <v>1.81399509330524</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.472370863027301</v>
+        <v>0.008301630095416578</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.81399509330524</v>
+        <v>3.275768313272562</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008301630095416578</v>
+        <v>0.9241818442235582</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.275768313272562</v>
+        <v>1.958497153009643</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9241818442235582</v>
+        <v>22</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.958497153009643</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3125626847119314</v>
       </c>
     </row>
@@ -3263,72 +3233,66 @@
         <v>1.471321097013159e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1141385268239476</v>
+        <v>5.609831123010388e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8056369302120148</v>
+        <v>6.424597150752772e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.609831123010388e-07</v>
+        <v>0.0008580340474953116</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.424597150752772e-06</v>
+        <v>0.3236330234031251</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0008580340474953116</v>
+        <v>0.1046532516924144</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3236330234031251</v>
+        <v>1.347094707683814</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1046532516924144</v>
+        <v>1.409389864874411</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.275624587359401</v>
+        <v>4.42143084104429</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.409389864874411</v>
+        <v>5.732119265509053e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.42143084104429</v>
+        <v>11308929.56113544</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.732119265509053e-14</v>
+        <v>7.785971316871777e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>11308929.56113544</v>
+        <v>7.330915540680255</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.785971316871777e-06</v>
+        <v>0.0001139524950670352</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7.330915540680255</v>
+        <v>7.37592548614214</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001139524950670352</v>
+        <v>1.647640238755556</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.37592548614214</v>
+        <v>0.006199503081070519</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.647640238755556</v>
+        <v>3.159213980976764</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006199503081070519</v>
+        <v>0.9224334865161492</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.159213980976764</v>
+        <v>1.924315657818016</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9224334865161492</v>
+        <v>22</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.924315657818016</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3203750289513946</v>
       </c>
     </row>
@@ -3343,72 +3307,66 @@
         <v>1.467924887664813e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1353038381202355</v>
+        <v>5.609831123010388e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.7835427589811812</v>
+        <v>6.425753575603892e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.609831123010388e-07</v>
+        <v>0.01330702943981007</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.425753575603892e-06</v>
+        <v>0.3030880624097799</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01330702943981007</v>
+        <v>0.09201123195283385</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3030880624097799</v>
+        <v>1.370159752832679</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.09201123195283385</v>
+        <v>1.487857431567013</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.296324356635942</v>
+        <v>4.598127499471172</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.487857431567013</v>
+        <v>4.520843891690596e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.598127499471172</v>
+        <v>14180416.48193364</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.520843891690596e-14</v>
+        <v>6.304664748943561e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>14180416.48193364</v>
+        <v>9.090703297322303</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.304664748943561e-06</v>
+        <v>0.0001132299608277175</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>9.090703297322303</v>
+        <v>7.21723717206364</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001132299608277175</v>
+        <v>1.607910210668134</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.21723717206364</v>
+        <v>0.005897980218378915</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.607910210668134</v>
+        <v>3.111749380133288</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.005897980218378915</v>
+        <v>0.9248655164441043</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.111749380133288</v>
+        <v>1.920522581141776</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9248655164441043</v>
+        <v>29</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.920522581141776</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3106671291688863</v>
       </c>
     </row>
@@ -3423,72 +3381,66 @@
         <v>1.45294182513083e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1637452858960849</v>
+        <v>5.609831123010388e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.7089898151407987</v>
+        <v>6.428079296110831e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.609831123010388e-07</v>
+        <v>0.01700748334118449</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.428079296110831e-06</v>
+        <v>0.3021362360604911</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01700748334118449</v>
+        <v>0.09157285083312351</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3021362360604911</v>
+        <v>1.395122351554121</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.09157285083312351</v>
+        <v>1.55090503867637</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.319617032825366</v>
+        <v>4.66488156508293</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.55090503867637</v>
+        <v>4.392383844596387e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.66488156508293</v>
+        <v>14256124.78984804</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.392383844596387e-14</v>
+        <v>6.438899140135774e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>14256124.78984804</v>
+        <v>8.926953284125041</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.438899140135774e-06</v>
+        <v>0.0001135014484371845</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>8.926953284125041</v>
+        <v>7.40170911246471</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001135014484371845</v>
+        <v>1.619288049825177</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.40170911246471</v>
+        <v>0.006218210651721622</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.619288049825177</v>
+        <v>3.100081817348257</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006218210651721622</v>
+        <v>0.92738900654615</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.100081817348257</v>
+        <v>1.906807131988644</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.92738900654615</v>
+        <v>31</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.906807131988644</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2924451576154082</v>
       </c>
     </row>
@@ -3503,72 +3455,66 @@
         <v>1.433265566188042e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1822366857552732</v>
+        <v>5.609831123010388e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.6210824959897496</v>
+        <v>6.430455018506691e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.609831123010388e-07</v>
+        <v>0.01585611832918488</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.430455018506691e-06</v>
+        <v>0.3067045073461888</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01585611832918488</v>
+        <v>0.09431880520899652</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3067045073461888</v>
+        <v>1.426751789495296</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.09431880520899652</v>
+        <v>1.539905146814064</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.346599136972148</v>
+        <v>4.595740062615998</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.539905146814064</v>
+        <v>4.525542169947807e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.595740062615998</v>
+        <v>13722191.66760787</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.525542169947807e-14</v>
+        <v>6.780274727206734e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>13722191.66760787</v>
+        <v>8.521530021474758</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.780274727206734e-06</v>
+        <v>0.0001239219149416</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8.521530021474758</v>
+        <v>7.958772747162548</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001239219149416</v>
+        <v>1.58513989703058</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.958772747162548</v>
+        <v>0.007849469822742603</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.58513989703058</v>
+        <v>3.003709632631841</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.007849469822742603</v>
+        <v>0.9292032605179142</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.003709632631841</v>
+        <v>1.892568334158572</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9292032605179142</v>
+        <v>31</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.892568334158572</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2837414405306197</v>
       </c>
     </row>
@@ -3583,72 +3529,66 @@
         <v>1.413648859148224e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.1962761125177586</v>
+        <v>5.609831123010388e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.531419749888733</v>
+        <v>6.432656172766506e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.609831123010388e-07</v>
+        <v>0.01483710579014674</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.432656172766506e-06</v>
+        <v>0.3109449777443936</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01483710579014674</v>
+        <v>0.09690567023559843</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3109449777443936</v>
+        <v>1.432142627221084</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.09690567023559843</v>
+        <v>1.568765734046411</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.34971370869593</v>
+        <v>4.718360799126917</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.568765734046411</v>
+        <v>4.29337907806675e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.718360799126917</v>
+        <v>14099293.76405239</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.29337907806675e-14</v>
+        <v>6.555693820226426e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>14099293.76405239</v>
+        <v>8.534811903421618</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.555693820226426e-06</v>
+        <v>0.0001307520596382385</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>8.534811903421618</v>
+        <v>8.435448863425814</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001307520596382385</v>
+        <v>1.659704731280451</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.435448863425814</v>
+        <v>0.009303897833978062</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.659704731280451</v>
+        <v>3.066033577620473</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.009303897833978062</v>
+        <v>0.9323529881836208</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.066033577620473</v>
+        <v>1.900063623782023</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9323529881836208</v>
+        <v>34</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.900063623782023</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2789972088754679</v>
       </c>
     </row>
@@ -4025,7 +3965,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.530864796091118</v>
+        <v>1.533498432242715</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.303241591547349</v>
@@ -4114,7 +4054,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.509678334091882</v>
+        <v>1.513152985772389</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.362795054901025</v>
@@ -4203,7 +4143,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.498840829260892</v>
+        <v>1.501042720237214</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.256105833557989</v>
@@ -4292,7 +4232,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.496295165707694</v>
+        <v>1.494745239292527</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.244345887124364</v>
@@ -4381,7 +4321,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.494098509854929</v>
+        <v>1.494358104593152</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.203228675933736</v>
@@ -4470,7 +4410,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.495203882158371</v>
+        <v>1.496721670025083</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.216474281020613</v>
@@ -4559,7 +4499,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.494115849545971</v>
+        <v>1.494481136262426</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.318910338639993</v>
@@ -4648,7 +4588,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.504308344052655</v>
+        <v>1.509192083107117</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.270375489873393</v>
@@ -4737,7 +4677,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.530596410156781</v>
+        <v>1.528234315518227</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.922615194471221</v>
@@ -4826,7 +4766,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.589714892685111</v>
+        <v>1.569521683392756</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.601865955994081</v>
@@ -4915,7 +4855,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.598441491362653</v>
+        <v>1.579009917081983</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.525063838076311</v>
@@ -5004,7 +4944,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.562944174424321</v>
+        <v>1.551122954660511</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.464299463963027</v>
@@ -5093,7 +5033,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.520182177586665</v>
+        <v>1.518405844604557</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.438730120231821</v>
@@ -5182,7 +5122,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.523819156928315</v>
+        <v>1.528901125843495</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.52623201586728</v>
@@ -5271,7 +5211,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.514864600199309</v>
+        <v>1.522772922784527</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.317067047631574</v>
@@ -5360,7 +5300,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.556020166184535</v>
+        <v>1.557320758425434</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.524128773083499</v>
@@ -5449,7 +5389,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.568695463168394</v>
+        <v>1.563137016070246</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.450528942291787</v>
@@ -5538,7 +5478,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.508938507766175</v>
+        <v>1.508939625246756</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.37876988088169</v>
@@ -5627,7 +5567,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.499769481460192</v>
+        <v>1.498516034067376</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.307647765641017</v>
@@ -5716,7 +5656,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.526549049096624</v>
+        <v>1.522040466615582</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.380842351894283</v>
@@ -5805,7 +5745,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.521248585811415</v>
+        <v>1.511386640629367</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.458139704831489</v>
@@ -5894,7 +5834,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.496211067727664</v>
+        <v>1.489785216453001</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.424435958692849</v>
@@ -5983,7 +5923,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.477756234006997</v>
+        <v>1.453113989124416</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.02064341652435</v>
@@ -6072,7 +6012,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.405499151395813</v>
+        <v>1.412445998463666</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.043233457098549</v>
@@ -6161,7 +6101,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.396868558669205</v>
+        <v>1.40477247450121</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.068199485683417</v>
@@ -6250,7 +6190,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.389470942140275</v>
+        <v>1.396142375201776</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.014390371389261</v>
@@ -6339,7 +6279,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.387043027682284</v>
+        <v>1.396094560358449</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.943600428347392</v>
@@ -6428,7 +6368,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.386439982739518</v>
+        <v>1.389624619268633</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.076779843195687</v>
@@ -6517,7 +6457,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.36685470891744</v>
+        <v>1.376352264962252</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.001974826814696</v>
@@ -6606,7 +6546,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.385452548673598</v>
+        <v>1.390907424679445</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.02672686899834</v>
@@ -6695,7 +6635,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.362372095476861</v>
+        <v>1.37290602496791</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.059452217525823</v>
@@ -6784,7 +6724,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.369863934134538</v>
+        <v>1.375206464255157</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.049311724173578</v>
@@ -6873,7 +6813,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.394488663281127</v>
+        <v>1.405753429387216</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.979153730834852</v>
@@ -6962,7 +6902,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.380014555131766</v>
+        <v>1.392078591688682</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.034297733593086</v>
@@ -7051,7 +6991,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.374014390092376</v>
+        <v>1.383889162803235</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.977586973639484</v>
@@ -7140,7 +7080,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.352420272305707</v>
+        <v>1.361952346562852</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.061934838868258</v>
@@ -7229,7 +7169,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.338024392157306</v>
+        <v>1.35286408617213</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.095228411841765</v>
@@ -7318,7 +7258,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.354062310217981</v>
+        <v>1.369297773562445</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.813832650030397</v>
@@ -7407,7 +7347,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.364794908490035</v>
+        <v>1.3815853331532</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.157400226591453</v>
@@ -7496,7 +7436,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.357632829048328</v>
+        <v>1.375955497477218</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.170188789427938</v>
@@ -7585,7 +7525,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.356078255176985</v>
+        <v>1.374260491677608</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.246607651518681</v>
@@ -7674,7 +7614,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.377819898239546</v>
+        <v>1.393886572780376</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.205691019700631</v>
@@ -7763,7 +7703,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.392049773210405</v>
+        <v>1.4065149623898</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.982579035240989</v>
@@ -7852,7 +7792,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.381521092303569</v>
+        <v>1.392026095006979</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.208124904394749</v>
@@ -7941,7 +7881,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.368935921438255</v>
+        <v>1.380282549193671</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.18500422139886</v>
@@ -8030,7 +7970,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.392368367188339</v>
+        <v>1.402512878214693</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.180944403153145</v>
@@ -8119,7 +8059,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.40630526962144</v>
+        <v>1.417339461265685</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.089862207358498</v>
@@ -8208,7 +8148,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.396168588610961</v>
+        <v>1.406012692263354</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.183257153944662</v>
@@ -8297,7 +8237,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.39626982377603</v>
+        <v>1.405089867510549</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.223731228651787</v>
@@ -8386,7 +8326,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.388372417139918</v>
+        <v>1.393000281332509</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.050794427998882</v>
@@ -8475,7 +8415,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.416530764797083</v>
+        <v>1.420699435164535</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.910341586421642</v>
@@ -8564,7 +8504,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.402672522397998</v>
+        <v>1.40813838289806</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.380419949793259</v>
@@ -8653,7 +8593,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.417695285554165</v>
+        <v>1.423218433829368</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.374045203305236</v>
@@ -8939,7 +8879,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.823303367268851</v>
+        <v>1.749808132428253</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.673257452180343</v>
@@ -9028,7 +8968,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.822072816288953</v>
+        <v>1.744029304078302</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.312507284079026</v>
@@ -9117,7 +9057,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.82080014569834</v>
+        <v>1.740451128411012</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.856598766962969</v>
@@ -9206,7 +9146,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.808214002897259</v>
+        <v>1.72682543281675</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.436811856055099</v>
@@ -9295,7 +9235,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.808601365495363</v>
+        <v>1.725997429052567</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.598911745654039</v>
@@ -9384,7 +9324,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.813426157566608</v>
+        <v>1.72894236031473</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.537513948818974</v>
@@ -9473,7 +9413,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.817470676672891</v>
+        <v>1.71812663549106</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.385884576084274</v>
@@ -9562,7 +9502,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.813624449967</v>
+        <v>1.712476223882743</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.522763413912195</v>
@@ -9651,7 +9591,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.813289831739169</v>
+        <v>1.710022648866395</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.622214441581051</v>
@@ -9740,7 +9680,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.808462131136256</v>
+        <v>1.708023530791224</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.082537704565622</v>
@@ -9829,7 +9769,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.808760735464419</v>
+        <v>1.71649608715318</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.705106975719</v>
@@ -9918,7 +9858,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.806814576547831</v>
+        <v>1.724958195112871</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.736326649069536</v>
@@ -10007,7 +9947,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.799551291386818</v>
+        <v>1.71829602047676</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.336410683182967</v>
@@ -10096,7 +10036,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.804343561987445</v>
+        <v>1.716066881756622</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.391176470418417</v>
@@ -10185,7 +10125,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.801677093330704</v>
+        <v>1.720530292439905</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.15961345302542</v>
@@ -10274,7 +10214,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.812964230031635</v>
+        <v>1.734885071411301</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.631228332323499</v>
@@ -10363,7 +10303,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.805558443926729</v>
+        <v>1.723701098652712</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.792370693582809</v>
@@ -10452,7 +10392,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.790331554807696</v>
+        <v>1.697053614369937</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.07644857058031</v>
@@ -10541,7 +10481,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.792329528858544</v>
+        <v>1.693731104463418</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.930614291666149</v>
@@ -10630,7 +10570,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.791665313326989</v>
+        <v>1.698545482947313</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.183746016500024</v>
@@ -10719,7 +10659,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.790815588839568</v>
+        <v>1.696912639301028</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.028569758487978</v>
@@ -10808,7 +10748,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.782952771937611</v>
+        <v>1.700249432905462</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.212137940634797</v>
@@ -10897,7 +10837,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.782748228022616</v>
+        <v>1.69529792056208</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.347517073263378</v>
@@ -10986,7 +10926,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.768531276949333</v>
+        <v>1.690980620234894</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.998847450013578</v>
@@ -11075,7 +11015,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.76354402399362</v>
+        <v>1.688932332447113</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.18038378039722</v>
@@ -11164,7 +11104,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.763177621016173</v>
+        <v>1.680133697224085</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.280606250894563</v>
@@ -11253,7 +11193,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.763830714947749</v>
+        <v>1.677684521293036</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.881533020086049</v>
@@ -11342,7 +11282,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.759641119439068</v>
+        <v>1.670611504034049</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.978614671498883</v>
@@ -11431,7 +11371,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.762506710591921</v>
+        <v>1.676890755805084</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.763883702697084</v>
@@ -11520,7 +11460,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.771425132960058</v>
+        <v>1.687186979078375</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.132711945898492</v>
@@ -11609,7 +11549,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.768204697437814</v>
+        <v>1.677616589113315</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.19515494410805</v>
@@ -11698,7 +11638,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.778434552174573</v>
+        <v>1.687765004811398</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.330469058964744</v>
@@ -11787,7 +11727,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.788965812991775</v>
+        <v>1.708386227707105</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.020211867160473</v>
@@ -11876,7 +11816,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.785766303320999</v>
+        <v>1.712759334401756</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.969080957583228</v>
@@ -11965,7 +11905,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.790575125049045</v>
+        <v>1.718655569354173</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.192314518048855</v>
@@ -12054,7 +11994,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.77582095429716</v>
+        <v>1.711969665228149</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.11353592518329</v>
@@ -12143,7 +12083,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.782733862178967</v>
+        <v>1.716664011697045</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.336246353587067</v>
@@ -12232,7 +12172,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.778220622450595</v>
+        <v>1.718165261411054</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.867844267833501</v>
@@ -12321,7 +12261,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.777536359503571</v>
+        <v>1.724448970249821</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.145780097287962</v>
@@ -12410,7 +12350,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.793366960190201</v>
+        <v>1.741378890463283</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.128120377026391</v>
@@ -12499,7 +12439,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.800301393189858</v>
+        <v>1.756321948460381</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.519520291992086</v>
@@ -12588,7 +12528,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.802737594589442</v>
+        <v>1.758653154582134</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.497255603994557</v>
@@ -12677,7 +12617,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.814092493307675</v>
+        <v>1.774645997620396</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.368567771952867</v>
@@ -12766,7 +12706,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.820491090375685</v>
+        <v>1.79005221695243</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.459044377207039</v>
@@ -12855,7 +12795,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.816335108847946</v>
+        <v>1.790750020853863</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.470260544143161</v>
@@ -12944,7 +12884,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.82012195846999</v>
+        <v>1.796883243797563</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.515525263076977</v>
@@ -13033,7 +12973,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.820912737476774</v>
+        <v>1.794030647785091</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.605787476757241</v>
@@ -13122,7 +13062,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.819400724243081</v>
+        <v>1.795327685296538</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.343512861190275</v>
@@ -13211,7 +13151,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.821640582752512</v>
+        <v>1.796308257475477</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.365536253672308</v>
@@ -13300,7 +13240,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.814138664629856</v>
+        <v>1.794379979942959</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.131199597524159</v>
@@ -13389,7 +13329,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.819064702483682</v>
+        <v>1.791826985286538</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.527084903752241</v>
@@ -13478,7 +13418,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.795863574668227</v>
+        <v>1.773435710899602</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.471355029523569</v>
@@ -13567,7 +13507,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.818656483711215</v>
+        <v>1.792503507957385</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.846145345384486</v>
@@ -13853,7 +13793,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.77747696231114</v>
+        <v>1.69657650894055</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.406740982599216</v>
@@ -13942,7 +13882,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.76916825812681</v>
+        <v>1.684721372857464</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.45838865339191</v>
@@ -14031,7 +13971,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.769282170810972</v>
+        <v>1.685472344920245</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.348185936724678</v>
@@ -14120,7 +14060,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.766580691133039</v>
+        <v>1.676986469486516</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.357961406434705</v>
@@ -14209,7 +14149,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.758749878880601</v>
+        <v>1.671185384257134</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.359537661157375</v>
@@ -14298,7 +14238,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.759825045572539</v>
+        <v>1.670093323511582</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.156735111038405</v>
@@ -14387,7 +14327,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.762714289658122</v>
+        <v>1.672536486640019</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.225594357817985</v>
@@ -14476,7 +14416,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.761447396758287</v>
+        <v>1.666233502350147</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.961383989673994</v>
@@ -14565,7 +14505,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.768212818971324</v>
+        <v>1.670300379949601</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.898214106831354</v>
@@ -14654,7 +14594,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.763234456555715</v>
+        <v>1.659344256148324</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.947027609320642</v>
@@ -14743,7 +14683,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.766702344635429</v>
+        <v>1.652398325863057</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.568694852600872</v>
@@ -14832,7 +14772,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.763306207825632</v>
+        <v>1.654150187689043</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.633167596609668</v>
@@ -14921,7 +14861,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.760912313623144</v>
+        <v>1.652696629336957</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.594820699616125</v>
@@ -15010,7 +14950,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.767161631729994</v>
+        <v>1.667280941622362</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.582334582342161</v>
@@ -15099,7 +15039,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.765489700221514</v>
+        <v>1.665667749113296</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.816564582663779</v>
@@ -15188,7 +15128,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.769448980142544</v>
+        <v>1.662053109368617</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.113217796974465</v>
@@ -15277,7 +15217,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.765050948075128</v>
+        <v>1.657848105569299</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.49336068899767</v>
@@ -15366,7 +15306,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.745181883583436</v>
+        <v>1.641719025326775</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.341630899501565</v>
@@ -15455,7 +15395,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.742947590568188</v>
+        <v>1.642591220692323</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.713280130228383</v>
@@ -15544,7 +15484,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.743417499006956</v>
+        <v>1.645050560781621</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.447350894947171</v>
@@ -15633,7 +15573,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.746447394324394</v>
+        <v>1.639336860211215</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.680245082598932</v>
@@ -15722,7 +15662,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.727145484929402</v>
+        <v>1.628047975230557</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.251755722132857</v>
@@ -15811,7 +15751,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.724472828319059</v>
+        <v>1.625604880324072</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.393814611221086</v>
@@ -15900,7 +15840,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.708972157968619</v>
+        <v>1.625456224390151</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.555216080057126</v>
@@ -15989,7 +15929,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.714815504507002</v>
+        <v>1.631432436173568</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.612603787827716</v>
@@ -16078,7 +16018,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.707121115064741</v>
+        <v>1.627160521167732</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.449085668667678</v>
@@ -16167,7 +16107,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.713166811829914</v>
+        <v>1.62368854131747</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.458702833622417</v>
@@ -16256,7 +16196,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.70746226343126</v>
+        <v>1.617512783255529</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.601649193818194</v>
@@ -16345,7 +16285,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.710707664854728</v>
+        <v>1.617995679631086</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.510634059968829</v>
@@ -16434,7 +16374,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.713664795489732</v>
+        <v>1.616094183493241</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.452579178792573</v>
@@ -16523,7 +16463,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.699298590795433</v>
+        <v>1.609806710015078</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.468381221888857</v>
@@ -16612,7 +16552,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.707563638371224</v>
+        <v>1.619981718997419</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.483256696078109</v>
@@ -16701,7 +16641,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.718334564879354</v>
+        <v>1.633473051996233</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.579128682853868</v>
@@ -16790,7 +16730,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.720072435766567</v>
+        <v>1.637948015587162</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.515556237465584</v>
@@ -16879,7 +16819,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.723216694503038</v>
+        <v>1.644099029400183</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.478444503055356</v>
@@ -16968,7 +16908,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.703602400266509</v>
+        <v>1.63963729287649</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.53520432935473</v>
@@ -17057,7 +16997,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.711860592763708</v>
+        <v>1.643782082844682</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.603813586177291</v>
@@ -17146,7 +17086,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.725600559704405</v>
+        <v>1.651638412421233</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.554603247818448</v>
@@ -17235,7 +17175,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.721710038848872</v>
+        <v>1.645457500096698</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.005359566916314</v>
@@ -17324,7 +17264,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.729382337041788</v>
+        <v>1.654804046653688</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.800727921864445</v>
@@ -17413,7 +17353,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.736435109246529</v>
+        <v>1.664712250025435</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.887322032803952</v>
@@ -17502,7 +17442,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.742247766196855</v>
+        <v>1.677542802822565</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.806351238642379</v>
@@ -17591,7 +17531,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.741874055357268</v>
+        <v>1.677116437116726</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.976681404282741</v>
@@ -17680,7 +17620,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.749383504806504</v>
+        <v>1.685211489908491</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.015652412608614</v>
@@ -17769,7 +17709,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.75693890885805</v>
+        <v>1.690732071903973</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.766627993241519</v>
@@ -17858,7 +17798,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.767931059198761</v>
+        <v>1.70143112591992</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.016781475056652</v>
@@ -17947,7 +17887,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.759403450124197</v>
+        <v>1.688328159823952</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.93102825754196</v>
@@ -18036,7 +17976,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.760503800856896</v>
+        <v>1.690507849250474</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.996429852839736</v>
@@ -18125,7 +18065,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.754049937128011</v>
+        <v>1.684737019622796</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.031410233514686</v>
@@ -18214,7 +18154,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.753745475141879</v>
+        <v>1.679556725188926</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.924483859379644</v>
@@ -18303,7 +18243,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.760960689725172</v>
+        <v>1.676647253944986</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.928813486901397</v>
@@ -18392,7 +18332,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.75198683984821</v>
+        <v>1.673004367567024</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.726357588414313</v>
@@ -18481,7 +18421,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.755150790664555</v>
+        <v>1.679566162738358</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.125308010914379</v>
@@ -18767,7 +18707,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.673172561190062</v>
+        <v>1.528869619123745</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.296056773252437</v>
@@ -18856,7 +18796,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.66741376277291</v>
+        <v>1.519881350266383</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.344811603400233</v>
@@ -18945,7 +18885,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.674319858100795</v>
+        <v>1.522487821059821</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.281507558496319</v>
@@ -19034,7 +18974,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.670607486801367</v>
+        <v>1.519949460541831</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.223584019266193</v>
@@ -19123,7 +19063,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.665080286433993</v>
+        <v>1.524148680194205</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.296037826859735</v>
@@ -19212,7 +19152,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.665969768275365</v>
+        <v>1.532177232730279</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.343865052180441</v>
@@ -19301,7 +19241,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.658122544176066</v>
+        <v>1.525310184627479</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.905509443545153</v>
@@ -19390,7 +19330,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.658648487303341</v>
+        <v>1.526870034431836</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.269759721182261</v>
@@ -19479,7 +19419,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.666919232211793</v>
+        <v>1.534076798185042</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.885465323074545</v>
@@ -19568,7 +19508,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.666850705382954</v>
+        <v>1.529679056189298</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.416703787131632</v>
@@ -19657,7 +19597,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.668701409221479</v>
+        <v>1.515494050378796</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.264960529133295</v>
@@ -19746,7 +19686,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.648607659109371</v>
+        <v>1.501567142335996</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.050793514525427</v>
@@ -19835,7 +19775,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.642619035232075</v>
+        <v>1.498666948149901</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.862226460457921</v>
@@ -19924,7 +19864,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.637131380609913</v>
+        <v>1.488240275250363</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.127899766923482</v>
@@ -20013,7 +19953,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.637670636220605</v>
+        <v>1.491827938114332</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.100027372473977</v>
@@ -20102,7 +20042,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.652386488138964</v>
+        <v>1.501287903033823</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.87503831718364</v>
@@ -20191,7 +20131,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.653378136979921</v>
+        <v>1.507939243463351</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.067462236919054</v>
@@ -20280,7 +20220,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.630118459011733</v>
+        <v>1.490837350112694</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.010954844069634</v>
@@ -20369,7 +20309,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.628097168129773</v>
+        <v>1.486738331819487</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.96171557601817</v>
@@ -20458,7 +20398,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.634863387568096</v>
+        <v>1.49414767753942</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.926996056258445</v>
@@ -20547,7 +20487,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.638511846656525</v>
+        <v>1.491233414220569</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.961999727284465</v>
@@ -20636,7 +20576,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.631664190119169</v>
+        <v>1.488095463801242</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.14376707045417</v>
@@ -20725,7 +20665,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.620857495638332</v>
+        <v>1.481669267153137</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.499710454198397</v>
@@ -20814,7 +20754,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.595283380320356</v>
+        <v>1.468184704650273</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.766176382942611</v>
@@ -20903,7 +20843,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.605116050787793</v>
+        <v>1.48328422625024</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.680881344924876</v>
@@ -20992,7 +20932,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.586445569968223</v>
+        <v>1.482822459205</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.775439339727431</v>
@@ -21081,7 +21021,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.605376276292871</v>
+        <v>1.493253942032979</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.887422749954118</v>
@@ -21170,7 +21110,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.604168927320335</v>
+        <v>1.491567490080668</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.728789857435101</v>
@@ -21259,7 +21199,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.605128783705502</v>
+        <v>1.492867565147758</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.895198677698616</v>
@@ -21348,7 +21288,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.597368593253582</v>
+        <v>1.485342433331366</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.778126419658541</v>
@@ -21437,7 +21377,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.585054182893625</v>
+        <v>1.476316328443565</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.689321369349389</v>
@@ -21526,7 +21466,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.590115323554911</v>
+        <v>1.476995626875142</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.865189674942941</v>
@@ -21615,7 +21555,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.608209299814426</v>
+        <v>1.494591282207142</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.764886673926093</v>
@@ -21704,7 +21644,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.613514314787339</v>
+        <v>1.496149101597581</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.822901048099614</v>
@@ -21793,7 +21733,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.609507374251631</v>
+        <v>1.494574059581241</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.779002229000795</v>
@@ -21882,7 +21822,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.588017222624953</v>
+        <v>1.48394131474958</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.732930538638529</v>
@@ -21971,7 +21911,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.590168137900917</v>
+        <v>1.487115631895659</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.699359381958237</v>
@@ -22060,7 +22000,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.590568106671126</v>
+        <v>1.486025568080028</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.587461322232874</v>
@@ -22149,7 +22089,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.599501470238091</v>
+        <v>1.499073504884238</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.97544241874235</v>
@@ -22238,7 +22178,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.593767401876324</v>
+        <v>1.494446948103755</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.974233827157569</v>
@@ -22327,7 +22267,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.61392398074635</v>
+        <v>1.503869556894738</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.705558390852719</v>
@@ -22416,7 +22356,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.600195514390729</v>
+        <v>1.498338138797438</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.001879976107634</v>
@@ -22505,7 +22445,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.607344455164979</v>
+        <v>1.507938111712813</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.875511810490734</v>
@@ -22594,7 +22534,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.611795041282262</v>
+        <v>1.519547621734866</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.969183102354706</v>
@@ -22683,7 +22623,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.61458706090166</v>
+        <v>1.526898428457145</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.658505509153815</v>
@@ -22772,7 +22712,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.620271768934694</v>
+        <v>1.530222090917132</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.987720889520493</v>
@@ -22861,7 +22801,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.608074971377343</v>
+        <v>1.521821961169903</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.957969291801563</v>
@@ -22950,7 +22890,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.605732374228212</v>
+        <v>1.520963784561065</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.842580191793364</v>
@@ -23039,7 +22979,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.604075372568426</v>
+        <v>1.524099665182003</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.756747923774429</v>
@@ -23128,7 +23068,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.601908292994005</v>
+        <v>1.520917006549281</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.68880545829835</v>
@@ -23217,7 +23157,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.619969790454491</v>
+        <v>1.525779566370445</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.464549787407682</v>
@@ -23306,7 +23246,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.615982027392666</v>
+        <v>1.532478777772063</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.950925621589884</v>
@@ -23395,7 +23335,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.631893544760404</v>
+        <v>1.544279576006901</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.269608624139606</v>
@@ -23681,7 +23621,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.663524844901899</v>
+        <v>1.558761283898296</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.268823951621524</v>
@@ -23770,7 +23710,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.660904802429873</v>
+        <v>1.559451235731327</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.101321069817108</v>
@@ -23859,7 +23799,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.65717393622377</v>
+        <v>1.552916659940092</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.29354526536525</v>
@@ -23948,7 +23888,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.650763889026368</v>
+        <v>1.549232587384296</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.223345723287327</v>
@@ -24037,7 +23977,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.653328549103767</v>
+        <v>1.553375551652112</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.127262988684667</v>
@@ -24126,7 +24066,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.630368258012117</v>
+        <v>1.540673707397273</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.357910339868557</v>
@@ -24215,7 +24155,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.634544841519705</v>
+        <v>1.537220256826131</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.183143072443552</v>
@@ -24304,7 +24244,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.634789153342315</v>
+        <v>1.5321049134824</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.206210303852719</v>
@@ -24393,7 +24333,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.642635747367059</v>
+        <v>1.539569297019361</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.250725156036208</v>
@@ -24482,7 +24422,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.63809577250787</v>
+        <v>1.539923707137535</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.208387996009681</v>
@@ -24571,7 +24511,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.638505110190002</v>
+        <v>1.542489480820086</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.209924608845079</v>
@@ -24660,7 +24600,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.633636197792679</v>
+        <v>1.542178260639303</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.286878367504892</v>
@@ -24749,7 +24689,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.627019972716581</v>
+        <v>1.537040288397397</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.300848352285469</v>
@@ -24838,7 +24778,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.619319784703215</v>
+        <v>1.532799039400362</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.269788536068202</v>
@@ -24927,7 +24867,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.617838946826817</v>
+        <v>1.536388081821466</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.242123853942918</v>
@@ -25016,7 +24956,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.618618383632513</v>
+        <v>1.534770530322194</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.221102071032446</v>
@@ -25105,7 +25045,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.61721818684974</v>
+        <v>1.528213627486815</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.271989618960168</v>
@@ -25194,7 +25134,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606846122237441</v>
+        <v>1.51813030783622</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.253846843297162</v>
@@ -25283,7 +25223,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.609914883358371</v>
+        <v>1.521988581088148</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.30372607792915</v>
@@ -25372,7 +25312,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.62288513655256</v>
+        <v>1.524759538096379</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.151354202111899</v>
@@ -25461,7 +25401,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.63065348175888</v>
+        <v>1.522267701966466</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.577534021068109</v>
@@ -25550,7 +25490,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.623262031685281</v>
+        <v>1.523975387547699</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.540391217348271</v>
@@ -25639,7 +25579,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.623170923847952</v>
+        <v>1.526408924268516</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.573251044154729</v>
@@ -25728,7 +25668,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.622612001330093</v>
+        <v>1.520267970651465</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.486924473129025</v>
@@ -25817,7 +25757,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.621379446265033</v>
+        <v>1.521682633521121</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.296420355097285</v>
@@ -25906,7 +25846,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.626968184763036</v>
+        <v>1.526745234381483</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.597385008657108</v>
@@ -25995,7 +25935,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.629745313617117</v>
+        <v>1.524518705195318</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.465803803260621</v>
@@ -26084,7 +26024,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.632012077645645</v>
+        <v>1.526798831191976</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.452454218229965</v>
@@ -26173,7 +26113,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.642633890890551</v>
+        <v>1.537205376707187</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.471311926670626</v>
@@ -26262,7 +26202,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.645926092280348</v>
+        <v>1.539264267440626</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.150932888290114</v>
@@ -26351,7 +26291,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.644468195651523</v>
+        <v>1.548089772571047</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.435804488095064</v>
@@ -26440,7 +26380,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.656051429369479</v>
+        <v>1.557761589457189</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.036007592712563</v>
@@ -26529,7 +26469,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.673994688249212</v>
+        <v>1.573579147053725</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.573254175685382</v>
@@ -26618,7 +26558,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.670414142780219</v>
+        <v>1.573492765696186</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.293826236519865</v>
@@ -26707,7 +26647,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.666027272249168</v>
+        <v>1.567550554643611</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.18779312957398</v>
@@ -26796,7 +26736,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.627863466202289</v>
+        <v>1.548853487798972</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.543271108880899</v>
@@ -26885,7 +26825,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588265139883035</v>
+        <v>1.519975928956196</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.496490874944091</v>
@@ -26974,7 +26914,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.577187269220063</v>
+        <v>1.518320510722512</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.482295475676058</v>
@@ -27063,7 +27003,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.575355295783161</v>
+        <v>1.523569930688714</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.633696627357213</v>
@@ -27152,7 +27092,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.571515649808176</v>
+        <v>1.519483790797985</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.530530811199829</v>
@@ -27241,7 +27181,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.576910648307793</v>
+        <v>1.526857710822155</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.484517681742026</v>
@@ -27330,7 +27270,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.584844132689136</v>
+        <v>1.535114259315223</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.535397590519524</v>
@@ -27419,7 +27359,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.582104375285339</v>
+        <v>1.53833866334205</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.428580317537535</v>
@@ -27508,7 +27448,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.580290688562543</v>
+        <v>1.538329069251464</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.490959996493532</v>
@@ -27597,7 +27537,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.586389853002346</v>
+        <v>1.544695428473865</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.506820552488957</v>
@@ -27686,7 +27626,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.591209538790348</v>
+        <v>1.543245610376841</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.436065086406825</v>
@@ -27775,7 +27715,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.588179750390465</v>
+        <v>1.5386041355805</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.557226894785427</v>
@@ -27864,7 +27804,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.584764653693738</v>
+        <v>1.537390907668122</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.398248336974954</v>
@@ -27953,7 +27893,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.579058884880736</v>
+        <v>1.532606104354717</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.494195693223055</v>
@@ -28042,7 +27982,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.581298568008003</v>
+        <v>1.535573002730972</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.241727011600696</v>
@@ -28131,7 +28071,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.612498750734855</v>
+        <v>1.56043116418277</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.205042470672222</v>
@@ -28220,7 +28160,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.655989646279701</v>
+        <v>1.596370885220729</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.968388685326802</v>
@@ -28309,7 +28249,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.670108014630082</v>
+        <v>1.603377498848426</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.771290621342218</v>
@@ -28595,7 +28535,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.551621328959593</v>
+        <v>1.5051688397316</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.483751328483479</v>
@@ -28684,7 +28624,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.539613916613695</v>
+        <v>1.493856287537868</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.45651141048821</v>
@@ -28773,7 +28713,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.541370338438164</v>
+        <v>1.491849266525332</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.471832700734753</v>
@@ -28862,7 +28802,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.53514806811497</v>
+        <v>1.486061984253591</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.346586880448391</v>
@@ -28951,7 +28891,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.552020680847056</v>
+        <v>1.50127821961073</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.445275428337122</v>
@@ -29040,7 +28980,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.562210514274974</v>
+        <v>1.510261541015657</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.24204613045768</v>
@@ -29129,7 +29069,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.572990653156801</v>
+        <v>1.516395176185766</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.470769252497638</v>
@@ -29218,7 +29158,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.600511544151527</v>
+        <v>1.536703724857515</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.493296092730335</v>
@@ -29307,7 +29247,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.619585348997012</v>
+        <v>1.545810346739347</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.380334547511727</v>
@@ -29396,7 +29336,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.666854299024158</v>
+        <v>1.584216879595541</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.002775367815691</v>
@@ -29485,7 +29425,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.673916566388701</v>
+        <v>1.583647687896683</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.086635984934141</v>
@@ -29574,7 +29514,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.671079685288521</v>
+        <v>1.585056436426191</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.999518121203537</v>
@@ -29663,7 +29603,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.674589608137939</v>
+        <v>1.590705349894745</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.007371984758072</v>
@@ -29752,7 +29692,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.663423034492714</v>
+        <v>1.585576044335938</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.978295602406167</v>
@@ -29841,7 +29781,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.649895122126733</v>
+        <v>1.580248128398231</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.100740565546516</v>
@@ -29930,7 +29870,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.669452428350626</v>
+        <v>1.597528888068777</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.18076571995242</v>
@@ -30019,7 +29959,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.680540255876124</v>
+        <v>1.609435275855164</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.782987933417969</v>
@@ -30108,7 +30048,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.63095769462253</v>
+        <v>1.572873751251312</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.931228676108052</v>
@@ -30197,7 +30137,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.631303168570937</v>
+        <v>1.572581494791604</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.759899054419987</v>
@@ -30286,7 +30226,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.638688942546252</v>
+        <v>1.582670374138387</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.710570369598839</v>
@@ -30375,7 +30315,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.597225816453894</v>
+        <v>1.550223349249677</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.675288373201226</v>
@@ -30464,7 +30404,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.56439562654931</v>
+        <v>1.528183868769372</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.626596954784759</v>
@@ -30553,7 +30493,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.552368650903891</v>
+        <v>1.513184030366389</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.431399949610769</v>
@@ -30642,7 +30582,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.514199520700383</v>
+        <v>1.488280832371612</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.571911642831087</v>
@@ -30731,7 +30671,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.511053921285404</v>
+        <v>1.479260360228985</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.67136067307153</v>
@@ -30820,7 +30760,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.494381660089139</v>
+        <v>1.465418071143641</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.471948881883216</v>
@@ -30909,7 +30849,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.502614138209463</v>
+        <v>1.466836776580972</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.470855594751643</v>
@@ -30998,7 +30938,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.501820758702227</v>
+        <v>1.464189196883209</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.55850981446378</v>
@@ -31087,7 +31027,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.503704306554569</v>
+        <v>1.473062324507173</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.430149321108264</v>
@@ -31176,7 +31116,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.509493545430636</v>
+        <v>1.469808637618364</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.455449371139115</v>
@@ -31265,7 +31205,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.494328070182897</v>
+        <v>1.458950180123803</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.479414520251136</v>
@@ -31354,7 +31294,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.49206013248969</v>
+        <v>1.444456817960599</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.278490499578914</v>
@@ -31443,7 +31383,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.495492461309499</v>
+        <v>1.456578431103</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.208308213740067</v>
@@ -31532,7 +31472,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.473921779597153</v>
+        <v>1.436708934478915</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.285157463668357</v>
@@ -31621,7 +31561,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.475287404500344</v>
+        <v>1.43627025612379</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.199110167539899</v>
@@ -31710,7 +31650,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.477561523962268</v>
+        <v>1.434031199362843</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.364139086408707</v>
@@ -31799,7 +31739,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.476724740423633</v>
+        <v>1.441110452955456</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.366879411123036</v>
@@ -31888,7 +31828,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.490827382574577</v>
+        <v>1.455214313395734</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.125177939854525</v>
@@ -31977,7 +31917,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.496958322088541</v>
+        <v>1.463128068488677</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.356964090015115</v>
@@ -32066,7 +32006,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.478357368812161</v>
+        <v>1.453207287989099</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.295741770228453</v>
@@ -32155,7 +32095,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.489297852437084</v>
+        <v>1.465794423299075</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.273558615051454</v>
@@ -32244,7 +32184,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.489858900560394</v>
+        <v>1.472359863619132</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.222754521673309</v>
@@ -32333,7 +32273,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.501991819909398</v>
+        <v>1.481906841722543</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.168606041610385</v>
@@ -32422,7 +32362,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.491535104645603</v>
+        <v>1.473619039899075</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.337332150701605</v>
@@ -32511,7 +32451,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.485966551349609</v>
+        <v>1.474448520471671</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.315539118526975</v>
@@ -32600,7 +32540,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.501124257759433</v>
+        <v>1.485085688493953</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.291532722711081</v>
@@ -32689,7 +32629,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.525227937392666</v>
+        <v>1.504611780521196</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.172724876568775</v>
@@ -32778,7 +32718,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.510049977658899</v>
+        <v>1.489802013119057</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.517968709523119</v>
@@ -32867,7 +32807,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.530124507037077</v>
+        <v>1.512042340241258</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.312750564931475</v>
@@ -32956,7 +32896,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.523059696208751</v>
+        <v>1.502978859052705</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.252042211383725</v>
@@ -33045,7 +32985,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.562340125630755</v>
+        <v>1.538234786183221</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.068528384583054</v>
@@ -33134,7 +33074,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.55606087761222</v>
+        <v>1.529383001398307</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.500349136127759</v>
@@ -33223,7 +33163,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.541547874771483</v>
+        <v>1.516511230359193</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.408056115736894</v>
